--- a/docs/sub_pipelines/pressure_loss/0114-CAL-0001-04 C & K Flow Rate_SS_verify.xlsx
+++ b/docs/sub_pipelines/pressure_loss/0114-CAL-0001-04 C & K Flow Rate_SS_verify.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\digitalmodel\docs\sub_pipelines\pressure_loss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sk Samdan\Desktop\digitalmodel\docs\sub_pipelines\pressure_loss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD1E025-873F-4F49-94BC-3F7AB70C5DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B726B5-2D21-48FD-8BFA-5B83EACA2C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client Data" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>4-1/2" ID</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>4.49999-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programming match </t>
   </si>
 </sst>
 </file>
@@ -3640,11 +3646,12 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
+                  <a:ea typeface="Calibri"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
                 <a:t>Flow Rate for All Parameters</a:t>
@@ -4425,8 +4432,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4451,7 +4458,9 @@
       <c r="B4" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="D4" s="32" t="s">
         <v>57</v>
       </c>
@@ -4469,7 +4478,9 @@
       <c r="B5" s="23">
         <v>9.81</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="23">
+        <v>9.81</v>
+      </c>
       <c r="D5" s="23">
         <v>9.81</v>
       </c>
@@ -4501,7 +4512,9 @@
         <f>B6*0.3048</f>
         <v>3048</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="34">
+        <v>3048</v>
+      </c>
       <c r="D7" s="34">
         <f>D6*0.3048</f>
         <v>3048</v>
@@ -4540,7 +4553,9 @@
         <f>B9*0.0254</f>
         <v>0.1143</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="29">
+        <v>0.114</v>
+      </c>
       <c r="D10" s="29">
         <f>D9*0.0254</f>
         <v>0.1016</v>
@@ -4558,7 +4573,9 @@
         <f>PI()/4*(B10)^2</f>
         <v>1.0260826451724329E-2</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="27">
+        <v>1.0200000000000001E-2</v>
+      </c>
       <c r="D11" s="27">
         <f>PI()/4*(D10)^2</f>
         <v>8.107319665559963E-3</v>
@@ -4593,7 +4610,9 @@
         <f>B12*0.001</f>
         <v>4.4999999999999996E-5</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="D13" s="35">
         <f>D12*0.001</f>
         <v>4.4999999999999996E-5</v>
@@ -4611,7 +4630,9 @@
         <f>B13/B10</f>
         <v>3.937007874015748E-4</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>3.8999999999999999E-4</v>
+      </c>
       <c r="D14" s="37">
         <f>D13/D10</f>
         <v>4.4291338582677165E-4</v>
@@ -4660,7 +4681,9 @@
         <f>B17*119.8264</f>
         <v>1797.3960000000002</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="26">
+        <v>1797.4</v>
+      </c>
       <c r="D18" s="26">
         <f>D17*119.8264</f>
         <v>1797.3960000000002</v>
@@ -4701,7 +4724,9 @@
         <f>B20*0.001</f>
         <v>0.06</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="25">
+        <v>0.06</v>
+      </c>
       <c r="D21" s="25">
         <f>D20*0.001</f>
         <v>0.06</v>
@@ -4743,7 +4768,9 @@
         <f>B24*0.1589873/60</f>
         <v>2.649788333333333E-2</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="31">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="D25" s="31">
         <f>D24*0.1589873/60</f>
         <v>2.649788333333333E-2</v>
@@ -4779,7 +4806,9 @@
         <f>B18*B26*B10/B21</f>
         <v>8842.3477823008961</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="30">
+        <v>8879.16</v>
+      </c>
       <c r="D27" s="30">
         <f>D18*D26*D10/D21</f>
         <v>9947.6412550885088</v>
@@ -4815,7 +4844,9 @@
         <f>64/B27</f>
         <v>7.2378967187995353E-3</v>
       </c>
-      <c r="C29" s="36"/>
+      <c r="C29" s="36">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="D29" s="36">
         <f>64/D27</f>
         <v>6.4336859722662525E-3</v>
@@ -4834,8 +4865,7 @@
         <v>3.2396383760578254E-2</v>
       </c>
       <c r="C30" s="36">
-        <f>6.9/B27+(B14/3.7)^1.11</f>
-        <v>8.1923404352243117E-4</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D30" s="36">
         <f>(1/(-1.8*LOG(6.9/D27+(D14/3.7)^1.11)))^2</f>
@@ -4858,8 +4888,7 @@
         <v>293.64590379313415</v>
       </c>
       <c r="C31" s="42">
-        <f>LOG(C30)</f>
-        <v>-3.0865920087525995</v>
+        <v>294.79000000000002</v>
       </c>
       <c r="D31" s="42">
         <f t="shared" ref="D31:E31" si="0">IF(D27&gt;3000,D30,D29)*D7/D10*D26^2/2/D5</f>
@@ -4875,10 +4904,7 @@
         <f>B18*B5*B31/1000000</f>
         <v>5.1776981140917515</v>
       </c>
-      <c r="C32" s="44">
-        <f>LOG(10)</f>
-        <v>1</v>
-      </c>
+      <c r="C32" s="44"/>
       <c r="D32" s="44">
         <f>D18*D5*D31/1000000</f>
         <v>9.0619963022418695</v>
@@ -4913,7 +4939,9 @@
         <f>B26^2/2/B5</f>
         <v>0.33990588189173793</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="42">
+        <v>0.34</v>
+      </c>
       <c r="D35" s="42">
         <f>D26^2/2/D5</f>
         <v>0.54446349880168288</v>
@@ -4931,7 +4959,9 @@
         <f>B7</f>
         <v>3048</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="43">
+        <v>3048</v>
+      </c>
       <c r="D36" s="43">
         <f>D7</f>
         <v>3048</v>
@@ -4949,7 +4979,9 @@
         <f>B36+B35+B31</f>
         <v>3341.9858096750258</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="43">
+        <v>3343.12</v>
+      </c>
       <c r="D37" s="43">
         <f>D36+D35+D31</f>
         <v>3562.4829040385389</v>
@@ -4998,7 +5030,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
